--- a/Client/assets/Csv/Cargo.xlsx
+++ b/Client/assets/Csv/Cargo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stvzhou/git/AnnoArk2/Client/assets/Csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\AnnoArk2\Client\assets\Csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16185" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,14 +153,26 @@
   </si>
   <si>
     <t>浮力模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanRaid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsArmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -479,15 +491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +509,17 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -508,8 +529,15 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>A2</f>
+        <v>sand</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -519,8 +547,15 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>A3</f>
+        <v>silicon</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -530,8 +565,12 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f>A4</f>
+        <v>ch4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -541,8 +580,15 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>A5</f>
+        <v>carbon</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -552,8 +598,15 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>A6</f>
+        <v>iron</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -563,8 +616,15 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <f>A7</f>
+        <v>chip</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -574,8 +634,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -585,8 +648,11 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -596,8 +662,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -607,8 +676,15 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f>A11</f>
+        <v>deuter</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -618,8 +694,12 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f>A12</f>
+        <v>nuke</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -630,7 +710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -640,8 +720,12 @@
       <c r="C14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f>A14</f>
+        <v>nukemiss</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -650,6 +734,13 @@
       </c>
       <c r="C15" t="s">
         <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f>A15</f>
+        <v>floatmod</v>
       </c>
     </row>
   </sheetData>
@@ -663,5 +754,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>